--- a/buho_back/services/file_generation/templates/discounted_cash_flow.xlsx
+++ b/buho_back/services/file_generation/templates/discounted_cash_flow.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthur/Library/CloudStorage/GoogleDrive-arthur.bmello@gmail.com/My Drive/0_professional/1_projects/buho/buho_back/buho_back/services/file_generation/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077619F5-9AB2-1944-88E1-C86C7B2F1E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F4157A-B364-4F45-8A6B-1CEA6009189F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="28500" windowHeight="16500" xr2:uid="{6A55973F-0BC6-46E9-9127-3E6E8D67F421}"/>
   </bookViews>
@@ -590,7 +590,7 @@
   <dimension ref="B2:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -880,11 +880,11 @@
         <v>9</v>
       </c>
       <c r="C15" s="6">
-        <f>SUM(C10:C14)</f>
+        <f>C10+C12-C13-C14</f>
         <v>0</v>
       </c>
       <c r="D15" s="6">
-        <f t="shared" ref="D15:G15" si="6">SUM(D10:D14)</f>
+        <f t="shared" ref="D15:H15" si="6">D10+D12-D13-D14</f>
         <v>0</v>
       </c>
       <c r="E15" s="6">
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="6">
-        <f t="shared" ref="H15" si="7">SUM(H10:H14)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J15"/>
@@ -924,15 +924,15 @@
         <v>0</v>
       </c>
       <c r="E17" s="11">
-        <f t="shared" ref="E17:G17" si="8">D17</f>
+        <f t="shared" ref="E17:G17" si="7">D17</f>
         <v>0</v>
       </c>
       <c r="F17" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G17" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H17" s="11">

--- a/buho_back/services/file_generation/templates/discounted_cash_flow.xlsx
+++ b/buho_back/services/file_generation/templates/discounted_cash_flow.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthur/Library/CloudStorage/GoogleDrive-arthur.bmello@gmail.com/My Drive/0_professional/1_projects/buho/buho_back/buho_back/services/file_generation/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F4157A-B364-4F45-8A6B-1CEA6009189F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF2CF53-8C49-E04F-BEEC-37BF621930A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="28500" windowHeight="16500" xr2:uid="{6A55973F-0BC6-46E9-9127-3E6E8D67F421}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>Period (t)</t>
   </si>
@@ -590,7 +590,7 @@
   <dimension ref="B2:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -603,7 +603,7 @@
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="12" t="str">
-        <f>"Sum of present values"&amp;" (in "&amp;'input variables'!$B$12&amp;" "&amp;'input variables'!$B$11&amp;")"</f>
+        <f>"Sum of present values"&amp;" (in "&amp;'input variables'!$B$13&amp;" "&amp;'input variables'!$B$12&amp;")"</f>
         <v>Sum of present values (in  )</v>
       </c>
       <c r="C2" s="6">
@@ -627,7 +627,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="4">
-        <f>'input variables'!B10</f>
+        <f>'input variables'!B11</f>
         <v>0</v>
       </c>
       <c r="D5" s="5">
@@ -669,23 +669,23 @@
         <v>0</v>
       </c>
       <c r="D7" s="6">
-        <f>C7*(1+'input variables'!$B$3)</f>
+        <f>C7*(1+'input variables'!$B$4)</f>
         <v>0</v>
       </c>
       <c r="E7" s="6">
-        <f>D7*(1+'input variables'!$B$3)</f>
+        <f>D7*(1+'input variables'!$B$4)</f>
         <v>0</v>
       </c>
       <c r="F7" s="6">
-        <f>E7*(1+'input variables'!$B$3)</f>
+        <f>E7*(1+'input variables'!$B$4)</f>
         <v>0</v>
       </c>
       <c r="G7" s="6">
-        <f>F7*(1+'input variables'!$B$3)</f>
+        <f>F7*(1+'input variables'!$B$4)</f>
         <v>0</v>
       </c>
       <c r="H7" s="6">
-        <f>G7*(1+'input variables'!$B$3)</f>
+        <f>G7*(1+'input variables'!$B$4)</f>
         <v>0</v>
       </c>
     </row>
@@ -723,7 +723,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="21">
-        <f>'input variables'!B4</f>
+        <f>'input variables'!B5</f>
         <v>0</v>
       </c>
       <c r="D9" s="22">
@@ -793,27 +793,27 @@
         <v>5</v>
       </c>
       <c r="C12" s="16">
-        <f>'input variables'!$B5*'DCF model'!C$7</f>
+        <f>'input variables'!$B$3</f>
         <v>0</v>
       </c>
       <c r="D12" s="16">
-        <f>'input variables'!$B5*'DCF model'!D$7</f>
+        <f>'input variables'!$B6*'DCF model'!D$7</f>
         <v>0</v>
       </c>
       <c r="E12" s="16">
-        <f>'input variables'!$B5*'DCF model'!E$7</f>
+        <f>'input variables'!$B6*'DCF model'!E$7</f>
         <v>0</v>
       </c>
       <c r="F12" s="16">
-        <f>'input variables'!$B5*'DCF model'!F$7</f>
+        <f>'input variables'!$B6*'DCF model'!F$7</f>
         <v>0</v>
       </c>
       <c r="G12" s="16">
-        <f>'input variables'!$B5*'DCF model'!G$7</f>
+        <f>'input variables'!$B6*'DCF model'!G$7</f>
         <v>0</v>
       </c>
       <c r="H12" s="16">
-        <f>'input variables'!$B5*'DCF model'!H$7</f>
+        <f>'input variables'!$B6*'DCF model'!H$7</f>
         <v>0</v>
       </c>
     </row>
@@ -822,27 +822,27 @@
         <v>6</v>
       </c>
       <c r="C13" s="16">
-        <f>'input variables'!$B6*'DCF model'!C$7</f>
+        <f>'input variables'!$B7*'DCF model'!C$7</f>
         <v>0</v>
       </c>
       <c r="D13" s="16">
-        <f>'input variables'!$B6*'DCF model'!D$7</f>
+        <f>'input variables'!$B7*'DCF model'!D$7</f>
         <v>0</v>
       </c>
       <c r="E13" s="16">
-        <f>'input variables'!$B6*'DCF model'!E$7</f>
+        <f>'input variables'!$B7*'DCF model'!E$7</f>
         <v>0</v>
       </c>
       <c r="F13" s="16">
-        <f>'input variables'!$B6*'DCF model'!F$7</f>
+        <f>'input variables'!$B7*'DCF model'!F$7</f>
         <v>0</v>
       </c>
       <c r="G13" s="16">
-        <f>'input variables'!$B6*'DCF model'!G$7</f>
+        <f>'input variables'!$B7*'DCF model'!G$7</f>
         <v>0</v>
       </c>
       <c r="H13" s="16">
-        <f>'input variables'!$B6*'DCF model'!H$7</f>
+        <f>'input variables'!$B7*'DCF model'!H$7</f>
         <v>0</v>
       </c>
     </row>
@@ -851,27 +851,27 @@
         <v>7</v>
       </c>
       <c r="C14" s="19">
-        <f>'input variables'!$B7*'DCF model'!C$7</f>
+        <f>'input variables'!$B8*'DCF model'!C$7</f>
         <v>0</v>
       </c>
       <c r="D14" s="20">
-        <f>'input variables'!$B7*'DCF model'!D$7</f>
+        <f>'input variables'!$B8*'DCF model'!D$7</f>
         <v>0</v>
       </c>
       <c r="E14" s="20">
-        <f>'input variables'!$B7*'DCF model'!E$7</f>
+        <f>'input variables'!$B8*'DCF model'!E$7</f>
         <v>0</v>
       </c>
       <c r="F14" s="20">
-        <f>'input variables'!$B7*'DCF model'!F$7</f>
+        <f>'input variables'!$B8*'DCF model'!F$7</f>
         <v>0</v>
       </c>
       <c r="G14" s="20">
-        <f>'input variables'!$B7*'DCF model'!G$7</f>
+        <f>'input variables'!$B8*'DCF model'!G$7</f>
         <v>0</v>
       </c>
       <c r="H14" s="20">
-        <f>'input variables'!$B7*'DCF model'!H$7</f>
+        <f>'input variables'!$B8*'DCF model'!H$7</f>
         <v>0</v>
       </c>
     </row>
@@ -920,7 +920,7 @@
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="11">
-        <f>'input variables'!$B$8</f>
+        <f>'input variables'!$B$9</f>
         <v>0</v>
       </c>
       <c r="E17" s="11">
@@ -977,7 +977,7 @@
         <v>13</v>
       </c>
       <c r="C21" s="17">
-        <f>'input variables'!B9</f>
+        <f>'input variables'!B10</f>
         <v>0</v>
       </c>
     </row>
@@ -1008,10 +1008,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179073CC-B9EC-EB45-820D-9418A752207F}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A2" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1037,69 +1037,76 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="25"/>
+        <v>5</v>
+      </c>
+      <c r="B3" s="24"/>
       <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B4" s="25"/>
-      <c r="C4" s="8"/>
+      <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B5" s="25"/>
-      <c r="C5" s="7"/>
+      <c r="C5" s="8"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="25"/>
-      <c r="C6" s="9"/>
+      <c r="C6" s="7"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="25"/>
       <c r="C7" s="9"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="26"/>
+        <v>17</v>
+      </c>
+      <c r="B8" s="25"/>
+      <c r="C8" s="9"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="B9" s="26"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="28"/>
+        <v>13</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="29" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11" s="28"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="28"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="28"/>
+      <c r="B13" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
